--- a/Data_RLA/summaryA.xlsx
+++ b/Data_RLA/summaryA.xlsx
@@ -472,28 +472,28 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E4">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="F4">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="G4">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="I4">
-        <v>47</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -501,28 +501,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="F5">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>52</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -530,28 +530,28 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="E6">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I6">
-        <v>66</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -559,28 +559,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="E7">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="G7">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I7">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -588,28 +588,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E8">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="G8">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I8">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -617,28 +617,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="C9">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="E9">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="F9">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="G9">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I9">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -711,28 +711,28 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>406382</v>
+        <v>300436</v>
       </c>
       <c r="C4">
-        <v>430833</v>
+        <v>427218</v>
       </c>
       <c r="D4">
-        <v>373786</v>
+        <v>314778</v>
       </c>
       <c r="E4">
-        <v>391303</v>
+        <v>443031</v>
       </c>
       <c r="F4">
-        <v>336690</v>
+        <v>315289</v>
       </c>
       <c r="G4">
-        <v>355217</v>
+        <v>439106</v>
       </c>
       <c r="H4">
-        <v>297533</v>
+        <v>311102</v>
       </c>
       <c r="I4">
-        <v>309497</v>
+        <v>427606</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -740,28 +740,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>392862</v>
+        <v>307688</v>
       </c>
       <c r="C5">
-        <v>442815</v>
+        <v>539275</v>
       </c>
       <c r="D5">
-        <v>351466</v>
+        <v>316621</v>
       </c>
       <c r="E5">
-        <v>394864</v>
+        <v>548079</v>
       </c>
       <c r="F5">
-        <v>327108</v>
+        <v>314001</v>
       </c>
       <c r="G5">
-        <v>363467</v>
+        <v>534708</v>
       </c>
       <c r="H5">
-        <v>282754</v>
+        <v>307137</v>
       </c>
       <c r="I5">
-        <v>315053</v>
+        <v>512932</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -769,28 +769,28 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>280198</v>
+        <v>251093</v>
       </c>
       <c r="C6">
-        <v>821236</v>
+        <v>851383</v>
       </c>
       <c r="D6">
-        <v>254716</v>
+        <v>241932</v>
       </c>
       <c r="E6">
-        <v>708907</v>
+        <v>820018</v>
       </c>
       <c r="F6">
-        <v>235757</v>
+        <v>232006</v>
       </c>
       <c r="G6">
-        <v>615728</v>
+        <v>775169</v>
       </c>
       <c r="H6">
-        <v>210994</v>
+        <v>221293</v>
       </c>
       <c r="I6">
-        <v>549790</v>
+        <v>725033</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -798,28 +798,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>126336</v>
+        <v>110353</v>
       </c>
       <c r="C7">
-        <v>364320</v>
+        <v>343477</v>
       </c>
       <c r="D7">
-        <v>113762</v>
+        <v>107725</v>
       </c>
       <c r="E7">
-        <v>312827</v>
+        <v>333150</v>
       </c>
       <c r="F7">
-        <v>103488</v>
+        <v>103444</v>
       </c>
       <c r="G7">
-        <v>275905</v>
+        <v>315626</v>
       </c>
       <c r="H7">
-        <v>93401</v>
+        <v>98883</v>
       </c>
       <c r="I7">
-        <v>237451</v>
+        <v>295683</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -827,28 +827,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>56378</v>
+        <v>47042</v>
       </c>
       <c r="C8">
-        <v>104360</v>
+        <v>119606</v>
       </c>
       <c r="D8">
-        <v>50418</v>
+        <v>46680</v>
       </c>
       <c r="E8">
-        <v>91980</v>
+        <v>117731</v>
       </c>
       <c r="F8">
-        <v>46152</v>
+        <v>45388</v>
       </c>
       <c r="G8">
-        <v>82115</v>
+        <v>112546</v>
       </c>
       <c r="H8">
-        <v>42399</v>
+        <v>43677</v>
       </c>
       <c r="I8">
-        <v>72839</v>
+        <v>106273</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -856,28 +856,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>27673902</v>
+        <v>20279439</v>
       </c>
       <c r="C9">
-        <v>29093347</v>
+        <v>26300578</v>
       </c>
       <c r="D9">
-        <v>24602292</v>
+        <v>21391712</v>
       </c>
       <c r="E9">
-        <v>25761200</v>
+        <v>27497039</v>
       </c>
       <c r="F9">
-        <v>22121167</v>
+        <v>21566370</v>
       </c>
       <c r="G9">
-        <v>22987948</v>
+        <v>27415896</v>
       </c>
       <c r="H9">
-        <v>20568259</v>
+        <v>21215148</v>
       </c>
       <c r="I9">
-        <v>21442155</v>
+        <v>26725005</v>
       </c>
     </row>
   </sheetData>
@@ -950,28 +950,28 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>95469</v>
+        <v>113527</v>
       </c>
       <c r="C4">
-        <v>99713</v>
+        <v>162645</v>
       </c>
       <c r="D4">
-        <v>81482</v>
+        <v>114376</v>
       </c>
       <c r="E4">
-        <v>84836</v>
+        <v>162047</v>
       </c>
       <c r="F4">
-        <v>69974</v>
+        <v>110529</v>
       </c>
       <c r="G4">
-        <v>72435</v>
+        <v>154537</v>
       </c>
       <c r="H4">
-        <v>60290</v>
+        <v>104431</v>
       </c>
       <c r="I4">
-        <v>61360</v>
+        <v>144045</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -979,28 +979,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>88713</v>
+        <v>114071</v>
       </c>
       <c r="C5">
-        <v>98497</v>
+        <v>202439</v>
       </c>
       <c r="D5">
-        <v>74531</v>
+        <v>112248</v>
       </c>
       <c r="E5">
-        <v>81802</v>
+        <v>196833</v>
       </c>
       <c r="F5">
-        <v>64583</v>
+        <v>106862</v>
       </c>
       <c r="G5">
-        <v>69833</v>
+        <v>184179</v>
       </c>
       <c r="H5">
-        <v>56204</v>
+        <v>100500</v>
       </c>
       <c r="I5">
-        <v>60388</v>
+        <v>169607</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1008,28 +1008,28 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>59423</v>
+        <v>85795</v>
       </c>
       <c r="C6">
-        <v>158271</v>
+        <v>304111</v>
       </c>
       <c r="D6">
-        <v>51375</v>
+        <v>79888</v>
       </c>
       <c r="E6">
-        <v>128298</v>
+        <v>281849</v>
       </c>
       <c r="F6">
-        <v>44974</v>
+        <v>73790</v>
       </c>
       <c r="G6">
-        <v>105621</v>
+        <v>256056</v>
       </c>
       <c r="H6">
-        <v>37729</v>
+        <v>68593</v>
       </c>
       <c r="I6">
-        <v>86730</v>
+        <v>231073</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1037,28 +1037,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>27462</v>
+        <v>38741</v>
       </c>
       <c r="C7">
-        <v>71723</v>
+        <v>125305</v>
       </c>
       <c r="D7">
-        <v>23454</v>
+        <v>36323</v>
       </c>
       <c r="E7">
-        <v>57978</v>
+        <v>116676</v>
       </c>
       <c r="F7">
-        <v>20202</v>
+        <v>33565</v>
       </c>
       <c r="G7">
-        <v>48051</v>
+        <v>106207</v>
       </c>
       <c r="H7">
-        <v>17752</v>
+        <v>31038</v>
       </c>
       <c r="I7">
-        <v>40172</v>
+        <v>95961</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1066,28 +1066,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>12794</v>
+        <v>16982</v>
       </c>
       <c r="C8">
-        <v>22001</v>
+        <v>44334</v>
       </c>
       <c r="D8">
-        <v>11013</v>
+        <v>16174</v>
       </c>
       <c r="E8">
-        <v>18030</v>
+        <v>41829</v>
       </c>
       <c r="F8">
-        <v>9292</v>
+        <v>15189</v>
       </c>
       <c r="G8">
-        <v>15044</v>
+        <v>38461</v>
       </c>
       <c r="H8">
-        <v>8050</v>
+        <v>14097</v>
       </c>
       <c r="I8">
-        <v>12654</v>
+        <v>34964</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1095,28 +1095,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>5854068</v>
+        <v>7126521</v>
       </c>
       <c r="C9">
-        <v>6040293</v>
+        <v>9278465</v>
       </c>
       <c r="D9">
-        <v>4899798</v>
+        <v>7239374</v>
       </c>
       <c r="E9">
-        <v>5083189</v>
+        <v>9340646</v>
       </c>
       <c r="F9">
-        <v>4161626</v>
+        <v>7031779</v>
       </c>
       <c r="G9">
-        <v>4313662</v>
+        <v>8972138</v>
       </c>
       <c r="H9">
-        <v>3520029</v>
+        <v>6649480</v>
       </c>
       <c r="I9">
-        <v>3604250</v>
+        <v>8397334</v>
       </c>
     </row>
   </sheetData>
@@ -1189,28 +1189,28 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6201</v>
+        <v>6107</v>
       </c>
       <c r="C4">
-        <v>6499</v>
+        <v>8771</v>
       </c>
       <c r="D4">
-        <v>5258</v>
+        <v>6189</v>
       </c>
       <c r="E4">
-        <v>5490</v>
+        <v>8790</v>
       </c>
       <c r="F4">
-        <v>4491</v>
+        <v>6015</v>
       </c>
       <c r="G4">
-        <v>4669</v>
+        <v>8431</v>
       </c>
       <c r="H4">
-        <v>3897</v>
+        <v>5731</v>
       </c>
       <c r="I4">
-        <v>3947</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5113</v>
+        <v>5868</v>
       </c>
       <c r="C5">
-        <v>5687</v>
+        <v>10438</v>
       </c>
       <c r="D5">
-        <v>4363</v>
+        <v>5789</v>
       </c>
       <c r="E5">
-        <v>4786</v>
+        <v>10172</v>
       </c>
       <c r="F5">
-        <v>3633</v>
+        <v>5542</v>
       </c>
       <c r="G5">
-        <v>3985</v>
+        <v>9557</v>
       </c>
       <c r="H5">
-        <v>2985</v>
+        <v>5203</v>
       </c>
       <c r="I5">
-        <v>3265</v>
+        <v>8824</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3690</v>
+        <v>4646</v>
       </c>
       <c r="C6">
-        <v>10094</v>
+        <v>16368</v>
       </c>
       <c r="D6">
-        <v>3094</v>
+        <v>4386</v>
       </c>
       <c r="E6">
-        <v>8017</v>
+        <v>15305</v>
       </c>
       <c r="F6">
-        <v>2678</v>
+        <v>4112</v>
       </c>
       <c r="G6">
-        <v>6605</v>
+        <v>14048</v>
       </c>
       <c r="H6">
-        <v>2311</v>
+        <v>3815</v>
       </c>
       <c r="I6">
-        <v>5413</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1772</v>
+        <v>2129</v>
       </c>
       <c r="C7">
-        <v>4715</v>
+        <v>6852</v>
       </c>
       <c r="D7">
-        <v>1509</v>
+        <v>2013</v>
       </c>
       <c r="E7">
-        <v>3793</v>
+        <v>6439</v>
       </c>
       <c r="F7">
-        <v>1289</v>
+        <v>1892</v>
       </c>
       <c r="G7">
-        <v>3130</v>
+        <v>5934</v>
       </c>
       <c r="H7">
-        <v>1130</v>
+        <v>1774</v>
       </c>
       <c r="I7">
-        <v>2617</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>826</v>
+        <v>924</v>
       </c>
       <c r="C8">
-        <v>1442</v>
+        <v>2413</v>
       </c>
       <c r="D8">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="E8">
-        <v>1174</v>
+        <v>2298</v>
       </c>
       <c r="F8">
-        <v>591</v>
+        <v>839</v>
       </c>
       <c r="G8">
-        <v>975</v>
+        <v>2132</v>
       </c>
       <c r="H8">
-        <v>510</v>
+        <v>789</v>
       </c>
       <c r="I8">
-        <v>813</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>367033</v>
+        <v>376072</v>
       </c>
       <c r="C9">
-        <v>382277</v>
+        <v>490583</v>
       </c>
       <c r="D9">
-        <v>304784</v>
+        <v>384129</v>
       </c>
       <c r="E9">
-        <v>316613</v>
+        <v>496497</v>
       </c>
       <c r="F9">
-        <v>257205</v>
+        <v>374545</v>
       </c>
       <c r="G9">
-        <v>268394</v>
+        <v>479648</v>
       </c>
       <c r="H9">
-        <v>215280</v>
+        <v>358667</v>
       </c>
       <c r="I9">
-        <v>223200</v>
+        <v>453962</v>
       </c>
     </row>
   </sheetData>
@@ -1428,28 +1428,28 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2240</v>
+        <v>2667</v>
       </c>
       <c r="C4">
-        <v>2338</v>
+        <v>3818</v>
       </c>
       <c r="D4">
-        <v>1926</v>
+        <v>2684</v>
       </c>
       <c r="E4">
-        <v>1987</v>
+        <v>3805</v>
       </c>
       <c r="F4">
-        <v>1635</v>
+        <v>2589</v>
       </c>
       <c r="G4">
-        <v>1681</v>
+        <v>3620</v>
       </c>
       <c r="H4">
-        <v>1403</v>
+        <v>2443</v>
       </c>
       <c r="I4">
-        <v>1465</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1457,28 +1457,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2063</v>
+        <v>2681</v>
       </c>
       <c r="C5">
-        <v>2272</v>
+        <v>4755</v>
       </c>
       <c r="D5">
-        <v>1795</v>
+        <v>2639</v>
       </c>
       <c r="E5">
-        <v>1944</v>
+        <v>4623</v>
       </c>
       <c r="F5">
-        <v>1519</v>
+        <v>2514</v>
       </c>
       <c r="G5">
-        <v>1648</v>
+        <v>4326</v>
       </c>
       <c r="H5">
-        <v>1282</v>
+        <v>2350</v>
       </c>
       <c r="I5">
-        <v>1386</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1486,28 +1486,28 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1415</v>
+        <v>2011</v>
       </c>
       <c r="C6">
-        <v>3715</v>
+        <v>7133</v>
       </c>
       <c r="D6">
-        <v>1216</v>
+        <v>1885</v>
       </c>
       <c r="E6">
-        <v>3010</v>
+        <v>6617</v>
       </c>
       <c r="F6">
-        <v>1018</v>
+        <v>1746</v>
       </c>
       <c r="G6">
-        <v>2457</v>
+        <v>6014</v>
       </c>
       <c r="H6">
-        <v>897</v>
+        <v>1602</v>
       </c>
       <c r="I6">
-        <v>2061</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1515,28 +1515,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>637</v>
+        <v>906</v>
       </c>
       <c r="C7">
-        <v>1671</v>
+        <v>2937</v>
       </c>
       <c r="D7">
-        <v>558</v>
+        <v>851</v>
       </c>
       <c r="E7">
-        <v>1366</v>
+        <v>2735</v>
       </c>
       <c r="F7">
-        <v>486</v>
+        <v>793</v>
       </c>
       <c r="G7">
-        <v>1120</v>
+        <v>2494</v>
       </c>
       <c r="H7">
-        <v>407</v>
+        <v>733</v>
       </c>
       <c r="I7">
-        <v>928</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1544,28 +1544,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>301</v>
+        <v>398</v>
       </c>
       <c r="C8">
-        <v>516</v>
+        <v>1040</v>
       </c>
       <c r="D8">
-        <v>257</v>
+        <v>380</v>
       </c>
       <c r="E8">
-        <v>426</v>
+        <v>982</v>
       </c>
       <c r="F8">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="G8">
-        <v>353</v>
+        <v>902</v>
       </c>
       <c r="H8">
-        <v>193</v>
+        <v>330</v>
       </c>
       <c r="I8">
-        <v>297</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1573,28 +1573,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>135897</v>
+        <v>167136</v>
       </c>
       <c r="C9">
-        <v>141966</v>
+        <v>217694</v>
       </c>
       <c r="D9">
-        <v>115246</v>
+        <v>170037</v>
       </c>
       <c r="E9">
-        <v>118891</v>
+        <v>219396</v>
       </c>
       <c r="F9">
-        <v>96042</v>
+        <v>164709</v>
       </c>
       <c r="G9">
-        <v>98371</v>
+        <v>210201</v>
       </c>
       <c r="H9">
-        <v>82736</v>
+        <v>156344</v>
       </c>
       <c r="I9">
-        <v>86270</v>
+        <v>197388</v>
       </c>
     </row>
   </sheetData>
@@ -1667,28 +1667,28 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10574088</v>
+        <v>2087480</v>
       </c>
       <c r="C4">
-        <v>13648397</v>
+        <v>3184944</v>
       </c>
       <c r="D4">
-        <v>9112566</v>
+        <v>1655416</v>
       </c>
       <c r="E4">
-        <v>13702367</v>
+        <v>2389489</v>
       </c>
       <c r="F4">
-        <v>7304641</v>
+        <v>1337758</v>
       </c>
       <c r="G4">
-        <v>13130184</v>
+        <v>1878464</v>
       </c>
       <c r="H4">
-        <v>5538708</v>
+        <v>1095395</v>
       </c>
       <c r="I4">
-        <v>11576040</v>
+        <v>1503909</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>7890873</v>
+        <v>1907856</v>
       </c>
       <c r="C5">
-        <v>13201094</v>
+        <v>3782354</v>
       </c>
       <c r="D5">
-        <v>6276321</v>
+        <v>1516774</v>
       </c>
       <c r="E5">
-        <v>13329233</v>
+        <v>2767133</v>
       </c>
       <c r="F5">
-        <v>4736516</v>
+        <v>1223920</v>
       </c>
       <c r="G5">
-        <v>13040150</v>
+        <v>2143974</v>
       </c>
       <c r="H5">
-        <v>3473843</v>
+        <v>999508</v>
       </c>
       <c r="I5">
-        <v>12033113</v>
+        <v>1692830</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1265593</v>
+        <v>991914</v>
       </c>
       <c r="C6">
-        <v>10222380</v>
+        <v>4824685</v>
       </c>
       <c r="D6">
-        <v>923073</v>
+        <v>807889</v>
       </c>
       <c r="E6">
-        <v>10364403</v>
+        <v>3334270</v>
       </c>
       <c r="F6">
-        <v>672075</v>
+        <v>666287</v>
       </c>
       <c r="G6">
-        <v>10394736</v>
+        <v>2565836</v>
       </c>
       <c r="H6">
-        <v>492638</v>
+        <v>555775</v>
       </c>
       <c r="I6">
-        <v>10254090</v>
+        <v>2016151</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>540475</v>
+        <v>466365</v>
       </c>
       <c r="C7">
-        <v>4523464</v>
+        <v>1894532</v>
       </c>
       <c r="D7">
-        <v>393428</v>
+        <v>378593</v>
       </c>
       <c r="E7">
-        <v>4541856</v>
+        <v>1394784</v>
       </c>
       <c r="F7">
-        <v>286378</v>
+        <v>311423</v>
       </c>
       <c r="G7">
-        <v>4421384</v>
+        <v>1074002</v>
       </c>
       <c r="H7">
-        <v>210195</v>
+        <v>259241</v>
       </c>
       <c r="I7">
-        <v>4050495</v>
+        <v>844640</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>471860</v>
+        <v>231340</v>
       </c>
       <c r="C8">
-        <v>1966352</v>
+        <v>759499</v>
       </c>
       <c r="D8">
-        <v>346287</v>
+        <v>186498</v>
       </c>
       <c r="E8">
-        <v>1999473</v>
+        <v>531223</v>
       </c>
       <c r="F8">
-        <v>251121</v>
+        <v>152441</v>
       </c>
       <c r="G8">
-        <v>2004092</v>
+        <v>409563</v>
       </c>
       <c r="H8">
-        <v>182382</v>
+        <v>126139</v>
       </c>
       <c r="I8">
-        <v>1964169</v>
+        <v>322523</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1812,28 +1812,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>843392578</v>
+        <v>154002774</v>
       </c>
       <c r="C9">
-        <v>939785943</v>
+        <v>238957293</v>
       </c>
       <c r="D9">
-        <v>797941342</v>
+        <v>114786894</v>
       </c>
       <c r="E9">
-        <v>959168817</v>
+        <v>149958184</v>
       </c>
       <c r="F9">
-        <v>713674898</v>
+        <v>92154516</v>
       </c>
       <c r="G9">
-        <v>966230860</v>
+        <v>117815280</v>
       </c>
       <c r="H9">
-        <v>601112617</v>
+        <v>75006315</v>
       </c>
       <c r="I9">
-        <v>959334860</v>
+        <v>94264781</v>
       </c>
     </row>
   </sheetData>
@@ -1906,28 +1906,28 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2728633</v>
+        <v>323594</v>
       </c>
       <c r="C4">
-        <v>3103084</v>
+        <v>493013</v>
       </c>
       <c r="D4">
-        <v>2606850</v>
+        <v>268217</v>
       </c>
       <c r="E4">
-        <v>3186729</v>
+        <v>384473</v>
       </c>
       <c r="F4">
-        <v>2374927</v>
+        <v>225714</v>
       </c>
       <c r="G4">
-        <v>3180764</v>
+        <v>315319</v>
       </c>
       <c r="H4">
-        <v>2080185</v>
+        <v>191838</v>
       </c>
       <c r="I4">
-        <v>3051357</v>
+        <v>262426</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1935,28 +1935,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2187168</v>
+        <v>298011</v>
       </c>
       <c r="C5">
-        <v>2897366</v>
+        <v>587387</v>
       </c>
       <c r="D5">
-        <v>1973116</v>
+        <v>246553</v>
       </c>
       <c r="E5">
-        <v>2965458</v>
+        <v>443266</v>
       </c>
       <c r="F5">
-        <v>1709402</v>
+        <v>206151</v>
       </c>
       <c r="G5">
-        <v>2972958</v>
+        <v>356777</v>
       </c>
       <c r="H5">
-        <v>1443073</v>
+        <v>173934</v>
       </c>
       <c r="I5">
-        <v>2897756</v>
+        <v>291631</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1964,28 +1964,28 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>567475</v>
+        <v>169980</v>
       </c>
       <c r="C6">
-        <v>2289269</v>
+        <v>787655</v>
       </c>
       <c r="D6">
-        <v>470158</v>
+        <v>143766</v>
       </c>
       <c r="E6">
-        <v>2337695</v>
+        <v>557425</v>
       </c>
       <c r="F6">
-        <v>387007</v>
+        <v>122881</v>
       </c>
       <c r="G6">
-        <v>2363994</v>
+        <v>447340</v>
       </c>
       <c r="H6">
-        <v>319155</v>
+        <v>106094</v>
       </c>
       <c r="I6">
-        <v>2367640</v>
+        <v>365624</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1993,28 +1993,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>250611</v>
+        <v>79529</v>
       </c>
       <c r="C7">
-        <v>1036504</v>
+        <v>306010</v>
       </c>
       <c r="D7">
-        <v>207708</v>
+        <v>67127</v>
       </c>
       <c r="E7">
-        <v>1055881</v>
+        <v>234568</v>
       </c>
       <c r="F7">
-        <v>171177</v>
+        <v>57300</v>
       </c>
       <c r="G7">
-        <v>1056545</v>
+        <v>188515</v>
       </c>
       <c r="H7">
-        <v>141449</v>
+        <v>49442</v>
       </c>
       <c r="I7">
-        <v>1028455</v>
+        <v>154369</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2022,28 +2022,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>186499</v>
+        <v>38188</v>
       </c>
       <c r="C8">
-        <v>448128</v>
+        <v>123009</v>
       </c>
       <c r="D8">
-        <v>157644</v>
+        <v>32058</v>
       </c>
       <c r="E8">
-        <v>460290</v>
+        <v>88153</v>
       </c>
       <c r="F8">
-        <v>131040</v>
+        <v>27210</v>
       </c>
       <c r="G8">
-        <v>466846</v>
+        <v>70913</v>
       </c>
       <c r="H8">
-        <v>108356</v>
+        <v>23342</v>
       </c>
       <c r="I8">
-        <v>467516</v>
+        <v>58117</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2051,28 +2051,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>187858086</v>
+        <v>22704226</v>
       </c>
       <c r="C9">
-        <v>198530086</v>
+        <v>36281378</v>
       </c>
       <c r="D9">
-        <v>187404402</v>
+        <v>17341947</v>
       </c>
       <c r="E9">
-        <v>204875234</v>
+        <v>22542049</v>
       </c>
       <c r="F9">
-        <v>180538019</v>
+        <v>14557796</v>
       </c>
       <c r="G9">
-        <v>208195965</v>
+        <v>18536838</v>
       </c>
       <c r="H9">
-        <v>168154347</v>
+        <v>12341708</v>
       </c>
       <c r="I9">
-        <v>209285860</v>
+        <v>15465169</v>
       </c>
     </row>
   </sheetData>
@@ -2145,28 +2145,28 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>175118</v>
+        <v>16078</v>
       </c>
       <c r="C4">
-        <v>198137</v>
+        <v>24505</v>
       </c>
       <c r="D4">
-        <v>168918</v>
+        <v>13808</v>
       </c>
       <c r="E4">
-        <v>204724</v>
+        <v>19843</v>
       </c>
       <c r="F4">
-        <v>155420</v>
+        <v>12066</v>
       </c>
       <c r="G4">
-        <v>205500</v>
+        <v>16930</v>
       </c>
       <c r="H4">
-        <v>137529</v>
+        <v>10672</v>
       </c>
       <c r="I4">
-        <v>198419</v>
+        <v>14686</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2174,28 +2174,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>126254</v>
+        <v>14215</v>
       </c>
       <c r="C5">
-        <v>169239</v>
+        <v>27893</v>
       </c>
       <c r="D5">
-        <v>113018</v>
+        <v>12117</v>
       </c>
       <c r="E5">
-        <v>172809</v>
+        <v>21739</v>
       </c>
       <c r="F5">
-        <v>97167</v>
+        <v>10460</v>
       </c>
       <c r="G5">
-        <v>172874</v>
+        <v>18095</v>
       </c>
       <c r="H5">
-        <v>81454</v>
+        <v>9131</v>
       </c>
       <c r="I5">
-        <v>168037</v>
+        <v>15328</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2203,28 +2203,28 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>35576</v>
+        <v>9181</v>
       </c>
       <c r="C6">
-        <v>142309</v>
+        <v>40363</v>
       </c>
       <c r="D6">
-        <v>29613</v>
+        <v>8094</v>
       </c>
       <c r="E6">
-        <v>145598</v>
+        <v>30003</v>
       </c>
       <c r="F6">
-        <v>24482</v>
+        <v>7221</v>
       </c>
       <c r="G6">
-        <v>147464</v>
+        <v>25178</v>
       </c>
       <c r="H6">
-        <v>20270</v>
+        <v>6514</v>
       </c>
       <c r="I6">
-        <v>147886</v>
+        <v>21549</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2232,28 +2232,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>16739</v>
+        <v>4332</v>
       </c>
       <c r="C7">
-        <v>66436</v>
+        <v>16012</v>
       </c>
       <c r="D7">
-        <v>14081</v>
+        <v>3819</v>
       </c>
       <c r="E7">
-        <v>68013</v>
+        <v>12868</v>
       </c>
       <c r="F7">
-        <v>11766</v>
+        <v>3411</v>
       </c>
       <c r="G7">
-        <v>68369</v>
+        <v>10846</v>
       </c>
       <c r="H7">
-        <v>9844</v>
+        <v>3082</v>
       </c>
       <c r="I7">
-        <v>66894</v>
+        <v>9328</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2261,28 +2261,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>12269</v>
+        <v>2009</v>
       </c>
       <c r="C8">
-        <v>28668</v>
+        <v>6316</v>
       </c>
       <c r="D8">
-        <v>10516</v>
+        <v>1757</v>
       </c>
       <c r="E8">
-        <v>29598</v>
+        <v>4746</v>
       </c>
       <c r="F8">
-        <v>8857</v>
+        <v>1556</v>
       </c>
       <c r="G8">
-        <v>30148</v>
+        <v>3996</v>
       </c>
       <c r="H8">
-        <v>7412</v>
+        <v>1396</v>
       </c>
       <c r="I8">
-        <v>30308</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2290,28 +2290,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>11743187</v>
+        <v>1102993</v>
       </c>
       <c r="C9">
-        <v>12396116</v>
+        <v>1759791</v>
       </c>
       <c r="D9">
-        <v>11762910</v>
+        <v>870700</v>
       </c>
       <c r="E9">
-        <v>12833056</v>
+        <v>1134234</v>
       </c>
       <c r="F9">
-        <v>11375294</v>
+        <v>757691</v>
       </c>
       <c r="G9">
-        <v>13072300</v>
+        <v>968127</v>
       </c>
       <c r="H9">
-        <v>10636200</v>
+        <v>667214</v>
       </c>
       <c r="I9">
-        <v>13166043</v>
+        <v>839943</v>
       </c>
     </row>
   </sheetData>
@@ -2384,28 +2384,28 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>646385</v>
+        <v>76755</v>
       </c>
       <c r="C4">
-        <v>677339</v>
+        <v>120319</v>
       </c>
       <c r="D4">
-        <v>667837</v>
+        <v>63046</v>
       </c>
       <c r="E4">
-        <v>714517</v>
+        <v>90400</v>
       </c>
       <c r="F4">
-        <v>668224</v>
+        <v>53049</v>
       </c>
       <c r="G4">
-        <v>734270</v>
+        <v>74110</v>
       </c>
       <c r="H4">
-        <v>654197</v>
+        <v>45087</v>
       </c>
       <c r="I4">
-        <v>739435</v>
+        <v>61677</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2413,28 +2413,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>583937</v>
+        <v>70280</v>
       </c>
       <c r="C5">
-        <v>647676</v>
+        <v>144921</v>
       </c>
       <c r="D5">
-        <v>585326</v>
+        <v>57950</v>
       </c>
       <c r="E5">
-        <v>674227</v>
+        <v>104240</v>
       </c>
       <c r="F5">
-        <v>571864</v>
+        <v>48451</v>
       </c>
       <c r="G5">
-        <v>688549</v>
+        <v>83854</v>
       </c>
       <c r="H5">
-        <v>550158</v>
+        <v>40879</v>
       </c>
       <c r="I5">
-        <v>693011</v>
+        <v>68542</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2442,28 +2442,28 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>301322</v>
+        <v>39951</v>
       </c>
       <c r="C6">
-        <v>530054</v>
+        <v>200504</v>
       </c>
       <c r="D6">
-        <v>289753</v>
+        <v>33789</v>
       </c>
       <c r="E6">
-        <v>542711</v>
+        <v>131181</v>
       </c>
       <c r="F6">
-        <v>276727</v>
+        <v>28881</v>
       </c>
       <c r="G6">
-        <v>550722</v>
+        <v>105140</v>
       </c>
       <c r="H6">
-        <v>263773</v>
+        <v>24935</v>
       </c>
       <c r="I6">
-        <v>555316</v>
+        <v>85932</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2471,28 +2471,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>134294</v>
+        <v>18692</v>
       </c>
       <c r="C7">
-        <v>240396</v>
+        <v>73972</v>
       </c>
       <c r="D7">
-        <v>129226</v>
+        <v>15777</v>
       </c>
       <c r="E7">
-        <v>246305</v>
+        <v>55148</v>
       </c>
       <c r="F7">
-        <v>123513</v>
+        <v>13467</v>
       </c>
       <c r="G7">
-        <v>249538</v>
+        <v>44306</v>
       </c>
       <c r="H7">
-        <v>117845</v>
+        <v>11620</v>
       </c>
       <c r="I7">
-        <v>250058</v>
+        <v>36281</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2500,28 +2500,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>72857</v>
+        <v>8978</v>
       </c>
       <c r="C8">
-        <v>102838</v>
+        <v>31282</v>
       </c>
       <c r="D8">
-        <v>70768</v>
+        <v>7535</v>
       </c>
       <c r="E8">
-        <v>106184</v>
+        <v>20742</v>
       </c>
       <c r="F8">
-        <v>67838</v>
+        <v>6395</v>
       </c>
       <c r="G8">
-        <v>108316</v>
+        <v>16667</v>
       </c>
       <c r="H8">
-        <v>64637</v>
+        <v>5486</v>
       </c>
       <c r="I8">
-        <v>109554</v>
+        <v>13659</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2529,28 +2529,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>41059046</v>
+        <v>5891822</v>
       </c>
       <c r="C9">
-        <v>41873227</v>
+        <v>10087279</v>
       </c>
       <c r="D9">
-        <v>43245310</v>
+        <v>4081402</v>
       </c>
       <c r="E9">
-        <v>44507888</v>
+        <v>5316173</v>
       </c>
       <c r="F9">
-        <v>44157268</v>
+        <v>3421600</v>
       </c>
       <c r="G9">
-        <v>46094329</v>
+        <v>4356959</v>
       </c>
       <c r="H9">
-        <v>44178249</v>
+        <v>2900653</v>
       </c>
       <c r="I9">
-        <v>47055955</v>
+        <v>3634759</v>
       </c>
     </row>
   </sheetData>
